--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1841584.792393288</v>
+        <v>1839208.165445921</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>36.7564611951709</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>146.22004634314</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>67.22331801800635</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>328.4528833267056</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.9377227717316</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>46.24467307253315</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>176.1146791460092</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>267.4083398772225</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>259.658084792058</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>85.4556421029896</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>145.8284992587528</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377005</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,19 +1582,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>215.3025979624047</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>1.696776052995119e-12</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137317</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>126.9263824507443</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>64.36993339924408</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272813</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643708109</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541134</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583159</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>28.75188085812055</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>66.25628701154962</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>108.2950343703289</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="44">
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.111199477247</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>885.1486825368356</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>885.1486825368356</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>499.3604299385914</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>88.37452514898382</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477247</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4395,40 +4395,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>349.0604424885611</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>349.0604424885611</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>198.9438030762254</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.9438030762254</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.9438030762254</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1269.331624317611</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1269.331624317611</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>1269.331624317611</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.331624317611</v>
+        <v>758.6984582168182</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>530.7089073188008</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>530.7089073188008</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1990.953909778728</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>1176.100419978354</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.55374984285</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>2377.55374984285</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>711.8144409709059</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>542.8782580429991</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>392.7616186306633</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>244.8485250482702</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>97.95857755035982</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>97.95857755035982</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>97.95857755035982</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>1114.255484944676</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>893.4629058011457</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829027</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886157</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818652</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893149</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>129.0834785909174</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>575.6256845144202</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C10" t="n">
-        <v>837.079342274803</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624673</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800742</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821638</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1386.561199187299</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1131.876710981412</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>842.459540944451</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>842.459540944451</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>621.6669618009208</v>
       </c>
     </row>
     <row r="11">
@@ -5033,22 +5033,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798835996</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138394</v>
       </c>
     </row>
     <row r="14">
@@ -5264,46 +5264,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>692.9625378792912</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770328</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>634.3345878491259</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,13 +5501,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,34 +5525,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5477693179085</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>762.5477693179085</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>614.6346757355154</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>467.744728237605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>300.548628952485</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>158.8367977946831</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="M21" t="n">
-        <v>924.8344286397182</v>
+        <v>692.9625378792912</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6221,16 +6221,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,25 +6689,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,7 +6716,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622286</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343217</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>597.257077721986</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395929</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>302.4540366416825</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970976</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934016</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035998</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892468</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,52 +7406,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400735</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121666</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>235.5284942057738</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138434</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703132</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>224.335519760177</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.591198401904</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.64270034434959</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-1.78706478128696e-12</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>70.8818764268394</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642683918</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038614</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>40.32043864788352</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>16.89590291932146</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101822629</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492376</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.6999868309282</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8635921600918</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>99.26785128071923</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>40.32043864788345</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>897069.5431855377</v>
+        <v>897069.5431855376</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>897069.5431855377</v>
+        <v>897069.5431855376</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>875001.9222469045</v>
+        <v>875001.9222469046</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>875001.9222469046</v>
+        <v>875001.9222469045</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583915</v>
-      </c>
       <c r="E2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907535</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099822</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731953</v>
+        <v>8117.312426731922</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426731984</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731985</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731962</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731963</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731975</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731976</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731976</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26485,10 +26485,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-787804.3616192364</v>
+        <v>-787804.3616192369</v>
       </c>
       <c r="C6" t="n">
         <v>326947.4219566829</v>
       </c>
       <c r="D6" t="n">
-        <v>326947.421956683</v>
+        <v>326947.4219566832</v>
       </c>
       <c r="E6" t="n">
-        <v>-71901.32908443117</v>
+        <v>-71936.06700986683</v>
       </c>
       <c r="F6" t="n">
-        <v>435584.1125401151</v>
+        <v>435549.374614679</v>
       </c>
       <c r="G6" t="n">
-        <v>435584.1125401148</v>
+        <v>435549.3746146795</v>
       </c>
       <c r="H6" t="n">
-        <v>435584.1125401146</v>
+        <v>435549.3746146793</v>
       </c>
       <c r="I6" t="n">
-        <v>435584.1125401151</v>
+        <v>435549.3746146793</v>
       </c>
       <c r="J6" t="n">
-        <v>267978.9347301326</v>
+        <v>267944.1968046973</v>
       </c>
       <c r="K6" t="n">
-        <v>435584.1125401151</v>
+        <v>435549.374614679</v>
       </c>
       <c r="L6" t="n">
-        <v>435584.112540115</v>
+        <v>435549.3746146791</v>
       </c>
       <c r="M6" t="n">
-        <v>302976.818811188</v>
+        <v>302942.0808857524</v>
       </c>
       <c r="N6" t="n">
-        <v>435584.1125401152</v>
+        <v>435549.3746146787</v>
       </c>
       <c r="O6" t="n">
-        <v>435584.1125401151</v>
+        <v>435549.374614679</v>
       </c>
       <c r="P6" t="n">
-        <v>435584.112540115</v>
+        <v>435549.3746146791</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26796,19 +26796,19 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000382</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>374.7912415777831</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.08655370166417</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>153.5253779792056</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>26.23015829397735</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>186.7933779067374</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>58.55192213136743</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>110.1124749751914</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>97.86455189378506</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802038</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>80.85095794181458</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>140.3986548624478</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.673377943565344e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30201,7 +30201,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-2.238707626147397e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190029</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533173</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>518.0009690113193</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190029</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991321</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>556.7959610899857</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>474.0150488837094</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>303.0719207327586</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>78.62292123526699</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35261,10 +35261,10 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>600.4551148476376</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396434</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132149</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745584</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088728</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>386.659256927986</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745584</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324654</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>425.4542490066523</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572999006</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
